--- a/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -1,82</t>
+          <t>-13,23; -1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,3</t>
+          <t>-1,57; 10,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -1,82</t>
+          <t>-13,23; -1,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,3</t>
+          <t>-1,57; 10,3</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -8,8</t>
+          <t>-51,72; -7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 51,98</t>
+          <t>-5,27; 54,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -8,8</t>
+          <t>-51,72; -7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 51,98</t>
+          <t>-5,27; 54,01</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -10,13</t>
+          <t>-21,92; -9,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 2,58</t>
+          <t>-11,7; 3,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -10,13</t>
+          <t>-21,92; -9,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 2,58</t>
+          <t>-11,7; 3,04</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,46; -54,15</t>
+          <t>-85,26; -54,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 15,64</t>
+          <t>-44,53; 19,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,46; -54,15</t>
+          <t>-85,26; -54,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 15,64</t>
+          <t>-44,53; 19,36</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -7,24</t>
+          <t>-18,87; -7,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 0,48</t>
+          <t>-12,13; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -7,24</t>
+          <t>-18,87; -7,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 0,48</t>
+          <t>-12,13; 1,07</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -30,12</t>
+          <t>-65,07; -30,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 2,75</t>
+          <t>-43,24; 3,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -30,12</t>
+          <t>-65,07; -30,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 2,75</t>
+          <t>-43,24; 3,73</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-33,32; -18,08</t>
+          <t>-34,01; -17,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -1,8</t>
+          <t>-18,82; -1,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,32; -18,08</t>
+          <t>-34,01; -17,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -1,8</t>
+          <t>-18,82; -1,8</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-95,29; -75,18</t>
+          <t>-95,12; -72,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,17; -7,7</t>
+          <t>-54,49; -6,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-95,29; -75,18</t>
+          <t>-95,12; -72,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,17; -7,7</t>
+          <t>-54,49; -6,73</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 5,03</t>
+          <t>-10,66; 5,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 2,83</t>
+          <t>-12,76; 2,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 5,03</t>
+          <t>-10,66; 5,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 2,83</t>
+          <t>-12,76; 2,06</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 32,26</t>
+          <t>-43,23; 30,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 17,05</t>
+          <t>-50,56; 14,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 32,26</t>
+          <t>-43,23; 30,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 17,05</t>
+          <t>-50,56; 14,76</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,56</t>
+          <t>-6,13; 4,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,05; 26,95</t>
+          <t>14,78; 26,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,56</t>
+          <t>-6,13; 4,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,05; 26,95</t>
+          <t>14,78; 26,61</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 21,35</t>
+          <t>-22,35; 19,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>55,37; 126,41</t>
+          <t>54,56; 124,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 21,35</t>
+          <t>-22,35; 19,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>55,37; 126,41</t>
+          <t>54,56; 124,94</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -3,81</t>
+          <t>-13,11; -3,64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -6,2</t>
+          <t>-15,63; -6,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -3,81</t>
+          <t>-13,11; -3,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -6,2</t>
+          <t>-15,63; -6,01</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -19,07</t>
+          <t>-51,54; -18,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-61,21; -29,05</t>
+          <t>-62,15; -29,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -19,07</t>
+          <t>-51,54; -18,54</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-61,21; -29,05</t>
+          <t>-62,15; -29,27</t>
         </is>
       </c>
     </row>
@@ -1897,22 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -6,35</t>
+          <t>-10,75; -6,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,39</t>
+          <t>-2,61; 2,15</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -28,2</t>
+          <t>-42,42; -27,67</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,47</t>
+          <t>-10,33; 9,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -1,73</t>
+          <t>-13,25; -1,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,3</t>
+          <t>-1,79; 10,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -1,73</t>
+          <t>-13,25; -1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,3</t>
+          <t>-1,79; 10,46</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -7,44</t>
+          <t>-51,23; -9,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 54,01</t>
+          <t>-7,36; 54,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -7,44</t>
+          <t>-51,23; -9,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 54,01</t>
+          <t>-7,36; 54,03</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,92; -9,73</t>
+          <t>-21,77; -9,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 3,04</t>
+          <t>-11,28; 3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,92; -9,73</t>
+          <t>-21,77; -9,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 3,04</t>
+          <t>-11,28; 3,09</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -54,5</t>
+          <t>-85,31; -55,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 19,36</t>
+          <t>-44,76; 19,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -54,5</t>
+          <t>-85,31; -55,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 19,36</t>
+          <t>-44,76; 19,54</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -7,15</t>
+          <t>-18,96; -7,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,07</t>
+          <t>-11,97; 0,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -7,15</t>
+          <t>-18,96; -7,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,07</t>
+          <t>-11,97; 0,76</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -30,47</t>
+          <t>-65,13; -29,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 3,73</t>
+          <t>-41,37; 2,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -30,47</t>
+          <t>-65,13; -29,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 3,73</t>
+          <t>-41,37; 2,99</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -17,79</t>
+          <t>-32,91; -18,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -1,8</t>
+          <t>-19,22; -1,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -17,79</t>
+          <t>-32,91; -18,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -1,8</t>
+          <t>-19,22; -1,29</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-95,12; -72,71</t>
+          <t>-94,72; -74,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,49; -6,73</t>
+          <t>-55,43; -4,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-95,12; -72,71</t>
+          <t>-94,72; -74,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,49; -6,73</t>
+          <t>-55,43; -4,86</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 5,05</t>
+          <t>-10,74; 4,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2,06</t>
+          <t>-13,06; 2,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 5,05</t>
+          <t>-10,74; 4,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2,06</t>
+          <t>-13,06; 2,57</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 30,95</t>
+          <t>-42,4; 29,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,56; 14,76</t>
+          <t>-51,55; 16,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 30,95</t>
+          <t>-42,4; 29,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,56; 14,76</t>
+          <t>-51,55; 16,3</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,46</t>
+          <t>-6,33; 4,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,78; 26,61</t>
+          <t>14,62; 26,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,46</t>
+          <t>-6,33; 4,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,78; 26,61</t>
+          <t>14,62; 26,48</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 19,98</t>
+          <t>-22,23; 21,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>54,56; 124,94</t>
+          <t>54,76; 123,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 19,98</t>
+          <t>-22,23; 21,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>54,56; 124,94</t>
+          <t>54,76; 123,43</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -3,64</t>
+          <t>-12,98; -3,67</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -6,01</t>
+          <t>-15,74; -6,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -3,64</t>
+          <t>-12,98; -3,67</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -6,01</t>
+          <t>-15,74; -6,18</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,54; -18,54</t>
+          <t>-51,72; -18,14</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -29,27</t>
+          <t>-62,67; -30,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-51,54; -18,54</t>
+          <t>-51,72; -18,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -29,27</t>
+          <t>-62,67; -30,28</t>
         </is>
       </c>
     </row>
@@ -1897,22 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -6,37</t>
+          <t>-10,67; -6,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,57; 2,36</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -27,67</t>
+          <t>-42,36; -27,78</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,52</t>
+          <t>-10,39; 10,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 7,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 6,36</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,21%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 40,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 35,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 40,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 35,13</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 10,46</t>
+          <t>-1,82; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 10,46</t>
+          <t>-1,82; 10,47</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 54,03</t>
+          <t>-7,17; 54,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 54,03</t>
+          <t>-7,17; 54,5</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-4,27</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 3,09</t>
+          <t>-11,27; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 3,09</t>
+          <t>-11,27; 3,1</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-19,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-19,82%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 19,54</t>
+          <t>-44,82; 19,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 19,54</t>
+          <t>-44,82; 19,51</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-14,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-14,07</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -7,4</t>
+          <t>-23,66; -9,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,76</t>
+          <t>-25,52; -5,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -7,4</t>
+          <t>-23,66; -9,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,76</t>
+          <t>-25,52; -5,05</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,34%</t>
+          <t>-55,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-46,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-50,34%</t>
+          <t>-55,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-46,77%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,13; -29,99</t>
+          <t>-70,97; -37,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 2,99</t>
+          <t>-72,53; -20,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,13; -29,99</t>
+          <t>-70,97; -37,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 2,99</t>
+          <t>-72,53; -20,13</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-10,34</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -1,29</t>
+          <t>-19,39; -1,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -1,29</t>
+          <t>-19,39; -1,43</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-34,86%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,86%</t>
+          <t>-35,43%</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,43; -4,86</t>
+          <t>-55,74; -6,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,43; -4,86</t>
+          <t>-55,74; -6,21</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 2,57</t>
+          <t>-13,15; 2,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 2,57</t>
+          <t>-13,15; 2,41</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-24,54%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-24,54%</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 16,3</t>
+          <t>-52,35; 15,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 16,3</t>
+          <t>-52,35; 15,86</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>20,85</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,62; 26,48</t>
+          <t>14,73; 26,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,62; 26,48</t>
+          <t>14,73; 26,49</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>85,81%</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>54,76; 123,43</t>
+          <t>55,73; 124,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>54,76; 123,43</t>
+          <t>55,73; 124,64</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>-11,05</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -6,18</t>
+          <t>-15,85; -6,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -6,18</t>
+          <t>-15,85; -6,3</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-48,78%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-48,78%</t>
+          <t>-48,94%</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,67; -30,28</t>
+          <t>-62,85; -31,12</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,67; -30,28</t>
+          <t>-62,85; -31,12</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,36</t>
+          <t>-4,39; 1,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,36</t>
+          <t>-4,39; 1,86</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-3,07%</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 10,63</t>
+          <t>-17,55; 8,0</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 10,63</t>
+          <t>-17,55; 8,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 7,38</t>
+          <t>-8,63; 7,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 6,36</t>
+          <t>-9,23; 7,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 7,38</t>
+          <t>-8,63; 7,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 6,36</t>
+          <t>-9,23; 7,12</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 40,31</t>
+          <t>-33,29; 43,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 35,13</t>
+          <t>-34,6; 39,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 40,31</t>
+          <t>-33,29; 43,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 35,13</t>
+          <t>-34,6; 39,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -1,93</t>
+          <t>-13,04; -2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 10,47</t>
+          <t>-1,34; 11,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -1,93</t>
+          <t>-13,04; -2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 10,47</t>
+          <t>-1,34; 11,03</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -9,17</t>
+          <t>-50,47; -10,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 54,5</t>
+          <t>-5,14; 56,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -9,17</t>
+          <t>-50,47; -10,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 54,5</t>
+          <t>-5,14; 56,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -9,9</t>
+          <t>-22,0; -10,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 3,1</t>
+          <t>-10,59; 2,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -9,9</t>
+          <t>-22,0; -10,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 3,1</t>
+          <t>-10,59; 2,85</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,31; -55,33</t>
+          <t>-86,29; -58,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,82; 19,51</t>
+          <t>-43,31; 16,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,31; -55,33</t>
+          <t>-86,29; -58,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,82; 19,51</t>
+          <t>-43,31; 16,39</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -9,99</t>
+          <t>-23,83; -10,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -5,05</t>
+          <t>-25,66; -5,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -9,99</t>
+          <t>-23,83; -10,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -5,05</t>
+          <t>-25,66; -5,45</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,97; -37,57</t>
+          <t>-70,27; -37,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,53; -20,13</t>
+          <t>-72,44; -18,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,97; -37,57</t>
+          <t>-70,27; -37,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,53; -20,13</t>
+          <t>-72,44; -18,88</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -18,28</t>
+          <t>-33,44; -18,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -1,43</t>
+          <t>-19,17; -1,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -18,28</t>
+          <t>-33,44; -18,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -1,43</t>
+          <t>-19,17; -1,54</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1349,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,72; -74,22</t>
+          <t>-95,13; -74,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,74; -6,21</t>
+          <t>-55,23; -6,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-94,72; -74,22</t>
+          <t>-95,13; -74,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,74; -6,21</t>
+          <t>-55,23; -6,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 4,99</t>
+          <t>-10,75; 4,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 2,41</t>
+          <t>-12,04; 2,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 4,99</t>
+          <t>-10,75; 4,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 2,41</t>
+          <t>-12,04; 2,67</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 29,44</t>
+          <t>-43,68; 24,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 15,86</t>
+          <t>-49,13; 15,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 29,44</t>
+          <t>-43,68; 24,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 15,86</t>
+          <t>-49,13; 15,67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,46</t>
+          <t>-5,59; 4,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,49</t>
+          <t>14,95; 27,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,46</t>
+          <t>-5,59; 4,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,49</t>
+          <t>14,95; 27,05</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 21,69</t>
+          <t>-21,41; 22,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>55,73; 124,64</t>
+          <t>55,19; 129,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 21,69</t>
+          <t>-21,41; 22,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>55,73; 124,64</t>
+          <t>55,19; 129,38</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -3,67</t>
+          <t>-13,45; -3,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -6,3</t>
+          <t>-15,89; -6,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -3,67</t>
+          <t>-13,45; -3,69</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -6,3</t>
+          <t>-15,89; -6,71</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -18,14</t>
+          <t>-53,44; -19,22</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,85; -31,12</t>
+          <t>-63,0; -33,13</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-51,72; -18,14</t>
+          <t>-53,44; -19,22</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,85; -31,12</t>
+          <t>-63,0; -33,13</t>
         </is>
       </c>
     </row>
@@ -1897,22 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,37</t>
+          <t>-10,63; -6,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,86</t>
+          <t>-4,04; 1,74</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -27,78</t>
+          <t>-42,15; -28,23</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,0</t>
+          <t>-16,22; 7,53</t>
         </is>
       </c>
     </row>
